--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
@@ -534,7 +534,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5316996666666667</v>
+        <v>0.5316996666666666</v>
       </c>
       <c r="H2">
         <v>1.595099</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.85604233333333</v>
+        <v>14.11187666666667</v>
       </c>
       <c r="N2">
-        <v>44.568127</v>
+        <v>42.33562999999999</v>
       </c>
       <c r="O2">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="P2">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
       <c r="Q2">
-        <v>7.898952756619222</v>
+        <v>7.503280119707775</v>
       </c>
       <c r="R2">
-        <v>71.090574809573</v>
+        <v>67.52952107736998</v>
       </c>
       <c r="S2">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="T2">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5316996666666667</v>
+        <v>0.5316996666666666</v>
       </c>
       <c r="H3">
         <v>1.595099</v>
@@ -620,22 +620,22 @@
         <v>342.820243</v>
       </c>
       <c r="O3">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="P3">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
       <c r="Q3">
-        <v>60.75913630989523</v>
+        <v>60.75913630989521</v>
       </c>
       <c r="R3">
-        <v>546.832226789057</v>
+        <v>546.8322267890569</v>
       </c>
       <c r="S3">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="T3">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5316996666666667</v>
+        <v>0.5316996666666666</v>
       </c>
       <c r="H4">
         <v>1.595099</v>
@@ -682,22 +682,22 @@
         <v>92.512991</v>
       </c>
       <c r="O4">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="P4">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="Q4">
-        <v>16.39637549234545</v>
+        <v>16.39637549234544</v>
       </c>
       <c r="R4">
         <v>147.567379431109</v>
       </c>
       <c r="S4">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="T4">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
     </row>
   </sheetData>
